--- a/data/output/performance_Close_DOGE.xlsx
+++ b/data/output/performance_Close_DOGE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365340082.106</v>
+        <v>365340131.726</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19113.871</v>
+        <v>19113.873</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18908.867</v>
+        <v>18908.869</v>
       </c>
     </row>
     <row r="5">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24754075.553</v>
+        <v>24754077.134</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38338806.01</v>
+        <v>38338808.613</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>237043.636</v>
+        <v>237043.652</v>
       </c>
     </row>
     <row r="10">

--- a/data/output/performance_Close_DOGE.xlsx
+++ b/data/output/performance_Close_DOGE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,16 @@
         <v>-0.339</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Accuracy of correct prediction side</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.493</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
